--- a/Java/集合数组&数据类型/集合数组.xlsx
+++ b/Java/集合数组&数据类型/集合数组.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
   <si>
     <t>底层数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2530,6 +2530,209 @@
         <charset val="134"/>
       </rPr>
       <t>将会以元素的添加顺序访问集合的元素。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.http://blog.51cto.com/13579086/2069837      //HashSet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TreeSet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的区别
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.https://blog.csdn.net/qq_35120695/article/details/56573865 //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为什么</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LinkedList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通常比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ArrayList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">快
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.https://www.cnblogs.com/huzi007/p/5550440.html    //Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ArrayList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LinkedList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">区别
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.https://blog.csdn.net/zxw9202/article/details/79097410  //TreeMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HashMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的区别和共同点</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2733,7 +2936,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2754,15 +2957,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2847,7 +3041,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2897,6 +3091,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2927,51 +3130,39 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2998,6 +3189,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3294,10 +3491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:K17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3315,47 +3512,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.9" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="13.9" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="60.75" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4"/>
@@ -3397,47 +3594,47 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="38.25" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1">
       <c r="A10" s="4"/>
@@ -3471,10 +3668,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="74.25" customHeight="1">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -3506,8 +3703,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="39.75" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="12" t="s">
         <v>7</v>
       </c>
@@ -3535,8 +3732,8 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" ht="55.5" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="12" t="s">
         <v>20</v>
       </c>
@@ -3566,8 +3763,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="35" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="38" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -3599,23 +3796,23 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="18" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="36"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="12" t="s">
         <v>9</v>
       </c>
@@ -3645,23 +3842,23 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="186.75" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="18" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="12" t="s">
         <v>63</v>
       </c>
@@ -3689,34 +3886,34 @@
       <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="34" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="26" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
     </row>
     <row r="21" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="7"/>
@@ -3732,10 +3929,10 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" ht="39" customHeight="1">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="26" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -3767,8 +3964,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="54.75" customHeight="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="12" t="s">
         <v>75</v>
       </c>
@@ -3794,8 +3991,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="41.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="12" t="s">
         <v>12</v>
       </c>
@@ -3821,8 +4018,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="127.5">
-      <c r="A25" s="24"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="12" t="s">
         <v>76</v>
       </c>
@@ -3846,23 +4043,23 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="11" customFormat="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="30" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="32"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
     </row>
     <row r="27" spans="1:11" ht="18" customHeight="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="15" t="s">
         <v>14</v>
       </c>
@@ -3878,115 +4075,173 @@
       <c r="K27" s="15"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
     </row>
     <row r="30" spans="1:11" s="3" customFormat="1">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
     </row>
     <row r="31" spans="1:11" s="3" customFormat="1">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
     </row>
     <row r="32" spans="1:11" s="3" customFormat="1">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
     </row>
     <row r="33" spans="1:11" s="3" customFormat="1" ht="33" customHeight="1">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
+      <c r="A34" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="A36:K39"/>
     <mergeCell ref="A30:K33"/>
     <mergeCell ref="A34:K35"/>
     <mergeCell ref="A1:K2"/>
@@ -4003,7 +4258,6 @@
     <mergeCell ref="C26:K26"/>
     <mergeCell ref="C15:K15"/>
     <mergeCell ref="C19:K19"/>
-    <mergeCell ref="B14:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4029,92 +4283,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="90" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="48"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="41"/>
+      <c r="A8" s="19"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
       <c r="A9" s="10" t="s">
@@ -4122,104 +4376,104 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Java/集合数组&数据类型/集合数组.xlsx
+++ b/Java/集合数组&数据类型/集合数组.xlsx
@@ -124,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TreeSet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>哈希表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1006,10 +1002,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据哈希值进行排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>哈希值+链表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2734,6 +2726,14 @@
       </rPr>
       <t>的区别和共同点</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据哈希值进行排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreeSet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3091,110 +3091,110 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3493,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3512,47 +3512,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.9" customHeight="1">
-      <c r="A1" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="A1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="13.9" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="60.75" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="A3" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4"/>
@@ -3594,52 +3594,52 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
+      <c r="A7" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11" ht="38.25" customHeight="1">
-      <c r="A9" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="A9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5" t="s">
@@ -3652,7 +3652,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>3</v>
@@ -3661,18 +3661,18 @@
         <v>4</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="74.25" customHeight="1">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>5</v>
@@ -3681,239 +3681,239 @@
         <v>6</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="39.75" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>48</v>
-      </c>
       <c r="J12" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" ht="55.5" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="38" t="s">
-        <v>43</v>
+      <c r="A14" s="35"/>
+      <c r="B14" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="106.5" customHeight="1">
+      <c r="A15" s="35"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+    </row>
+    <row r="16" spans="1:11" ht="18" customHeight="1">
+      <c r="A16" s="35"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="2" customFormat="1" ht="186.75" customHeight="1">
+      <c r="A17" s="35"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="35"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="21" t="s">
+      <c r="F18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" s="2" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A19" s="35"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="1:11" ht="18" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" ht="186.75" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K18" s="13"/>
-    </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="7"/>
@@ -3929,144 +3929,144 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" ht="39" customHeight="1">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>45</v>
-      </c>
       <c r="C22" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="54.75" customHeight="1">
+      <c r="A23" s="31"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="54.75" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="E23" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="41.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I24" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="25" spans="1:11" ht="127.5">
-      <c r="A25" s="27"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="K25" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J25" s="13" t="s">
+    </row>
+    <row r="26" spans="1:11" s="11" customFormat="1">
+      <c r="A26" s="31"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="K25" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="11" customFormat="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="35"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="39"/>
     </row>
     <row r="27" spans="1:11" ht="18" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -4075,171 +4075,173 @@
       <c r="K27" s="15"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+    </row>
+    <row r="30" spans="1:11" s="3" customFormat="1">
+      <c r="A30" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-    </row>
-    <row r="30" spans="1:11" s="3" customFormat="1">
-      <c r="A30" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
     </row>
     <row r="31" spans="1:11" s="3" customFormat="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" spans="1:11" s="3" customFormat="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
     </row>
     <row r="33" spans="1:11" s="3" customFormat="1" ht="33" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
+      <c r="A34" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
+      <c r="A36" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C19:K19"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="A36:K39"/>
     <mergeCell ref="A30:K33"/>
@@ -4256,8 +4258,6 @@
     <mergeCell ref="A11:A20"/>
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C19:K19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4283,197 +4283,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A3" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A3" s="46" t="s">
+      <c r="B3" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+    </row>
+    <row r="4" spans="1:10" ht="90" customHeight="1">
+      <c r="A4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-    </row>
-    <row r="4" spans="1:10" ht="90" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="46" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="48"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="47"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="19" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="19"/>
+      <c r="A8" s="49"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="8">
